--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Vatican_city\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -368,7 +368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="61">
   <si>
     <t>-</t>
   </si>
@@ -549,6 +549,9 @@
   </si>
   <si>
     <t>High convenience set of tables table of actual coins with photos</t>
+  </si>
+  <si>
+    <t>Obv: With mint letter R</t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -729,13 +732,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -810,6 +828,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1199,15 +1220,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
@@ -1256,7 +1275,9 @@
       <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
         <v>29</v>
@@ -1277,7 +1298,9 @@
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
         <v>29</v>
@@ -1298,7 +1321,9 @@
       <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="23" t="s">
         <v>30</v>
@@ -1318,7 +1343,9 @@
       <c r="B6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="23" t="s">
         <v>30</v>
@@ -1338,7 +1365,9 @@
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="23" t="s">
         <v>31</v>
@@ -1358,7 +1387,9 @@
       <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="23" t="s">
         <v>30</v>
@@ -1378,7 +1409,9 @@
       <c r="B9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="23" t="s">
         <v>30</v>
@@ -1398,7 +1431,9 @@
       <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
         <v>32</v>
@@ -1418,7 +1453,9 @@
       <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
         <v>33</v>
@@ -1438,7 +1475,9 @@
       <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
         <v>34</v>
@@ -1458,7 +1497,9 @@
       <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
         <v>34</v>
@@ -1478,7 +1519,9 @@
       <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
         <v>35</v>
@@ -1498,7 +1541,9 @@
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
         <v>36</v>
@@ -1518,7 +1563,9 @@
       <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14" t="s">
         <v>37</v>
@@ -1538,7 +1585,9 @@
       <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
         <v>38</v>
@@ -1558,7 +1607,9 @@
       <c r="B18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14" t="s">
         <v>39</v>
@@ -1578,7 +1629,9 @@
       <c r="B19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14" t="s">
         <v>39</v>
@@ -1598,7 +1651,9 @@
       <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D20" s="13"/>
       <c r="E20" s="14" t="s">
         <v>40</v>
@@ -1618,7 +1673,9 @@
       <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14" t="s">
         <v>41</v>
@@ -1668,15 +1725,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
@@ -1725,7 +1780,9 @@
       <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
         <v>29</v>
@@ -1746,7 +1803,9 @@
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
         <v>29</v>
@@ -1767,7 +1826,9 @@
       <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="23" t="s">
         <v>30</v>
@@ -1787,7 +1848,9 @@
       <c r="B6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="23" t="s">
         <v>30</v>
@@ -1807,7 +1870,9 @@
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="23" t="s">
         <v>31</v>
@@ -1827,7 +1892,9 @@
       <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="23" t="s">
         <v>30</v>
@@ -1847,7 +1914,9 @@
       <c r="B9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="23" t="s">
         <v>30</v>
@@ -1867,7 +1936,9 @@
       <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
         <v>32</v>
@@ -1887,7 +1958,9 @@
       <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
         <v>33</v>
@@ -1907,7 +1980,9 @@
       <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
         <v>34</v>
@@ -1927,7 +2002,9 @@
       <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
         <v>34</v>
@@ -1947,7 +2024,9 @@
       <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
         <v>35</v>
@@ -1967,7 +2046,9 @@
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
         <v>36</v>
@@ -1987,7 +2068,9 @@
       <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14" t="s">
         <v>37</v>
@@ -2007,7 +2090,9 @@
       <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
         <v>38</v>
@@ -2027,7 +2112,9 @@
       <c r="B18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14" t="s">
         <v>39</v>
@@ -2047,7 +2134,9 @@
       <c r="B19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14" t="s">
         <v>39</v>
@@ -2067,7 +2156,9 @@
       <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D20" s="13"/>
       <c r="E20" s="14" t="s">
         <v>40</v>
@@ -2087,7 +2178,9 @@
       <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14" t="s">
         <v>41</v>
@@ -2137,15 +2230,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
@@ -2194,7 +2285,9 @@
       <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
         <v>29</v>
@@ -2215,7 +2308,9 @@
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
         <v>29</v>
@@ -2236,7 +2331,9 @@
       <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="23" t="s">
         <v>30</v>
@@ -2256,7 +2353,9 @@
       <c r="B6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="23" t="s">
         <v>30</v>
@@ -2276,7 +2375,9 @@
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="23" t="s">
         <v>31</v>
@@ -2296,7 +2397,9 @@
       <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="23" t="s">
         <v>30</v>
@@ -2316,7 +2419,9 @@
       <c r="B9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="23" t="s">
         <v>30</v>
@@ -2336,7 +2441,9 @@
       <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
         <v>32</v>
@@ -2356,7 +2463,9 @@
       <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
         <v>33</v>
@@ -2376,7 +2485,9 @@
       <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
         <v>34</v>
@@ -2396,7 +2507,9 @@
       <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
         <v>34</v>
@@ -2416,7 +2529,9 @@
       <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
         <v>35</v>
@@ -2436,7 +2551,9 @@
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
         <v>36</v>
@@ -2456,7 +2573,9 @@
       <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14" t="s">
         <v>37</v>
@@ -2476,7 +2595,9 @@
       <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
         <v>38</v>
@@ -2496,7 +2617,9 @@
       <c r="B18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14" t="s">
         <v>39</v>
@@ -2516,7 +2639,9 @@
       <c r="B19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14" t="s">
         <v>39</v>
@@ -2536,7 +2661,9 @@
       <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D20" s="13"/>
       <c r="E20" s="14" t="s">
         <v>40</v>
@@ -2556,7 +2683,9 @@
       <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14" t="s">
         <v>41</v>
@@ -2606,15 +2735,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
@@ -2663,10 +2790,12 @@
       <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
         <v>29</v>
       </c>
@@ -2686,10 +2815,12 @@
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
         <v>29</v>
       </c>
@@ -2709,10 +2840,12 @@
       <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13"/>
       <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
@@ -2731,10 +2864,12 @@
       <c r="B6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13"/>
       <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
@@ -2753,10 +2888,12 @@
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13"/>
       <c r="E7" s="23" t="s">
         <v>31</v>
       </c>
@@ -2775,10 +2912,12 @@
       <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13"/>
       <c r="E8" s="23" t="s">
         <v>30</v>
       </c>
@@ -2797,10 +2936,12 @@
       <c r="B9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13"/>
       <c r="E9" s="23" t="s">
         <v>30</v>
       </c>
@@ -2819,10 +2960,12 @@
       <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="13"/>
+      <c r="C10" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="14" t="s">
         <v>32</v>
       </c>
@@ -2841,10 +2984,12 @@
       <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="13"/>
+      <c r="C11" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="14" t="s">
         <v>33</v>
       </c>
@@ -2863,10 +3008,12 @@
       <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="13"/>
+      <c r="C12" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="14" t="s">
         <v>34</v>
       </c>
@@ -2885,10 +3032,12 @@
       <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="13"/>
+      <c r="C13" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="14" t="s">
         <v>34</v>
       </c>
@@ -2907,10 +3056,12 @@
       <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="13"/>
+      <c r="C14" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="14" t="s">
         <v>35</v>
       </c>
@@ -2929,10 +3080,12 @@
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="C15" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="14" t="s">
         <v>36</v>
       </c>
@@ -2951,10 +3104,12 @@
       <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="13"/>
+      <c r="C16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="14" t="s">
         <v>37</v>
       </c>
@@ -2973,10 +3128,12 @@
       <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="13"/>
+      <c r="C17" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="14" t="s">
         <v>38</v>
       </c>
@@ -2995,10 +3152,12 @@
       <c r="B18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="13"/>
+      <c r="C18" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="14" t="s">
         <v>39</v>
       </c>
@@ -3017,10 +3176,12 @@
       <c r="B19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="13"/>
+      <c r="C19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="14" t="s">
         <v>39</v>
       </c>
@@ -3039,10 +3200,12 @@
       <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="13"/>
+      <c r="C20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="14" t="s">
         <v>40</v>
       </c>
@@ -3061,10 +3224,12 @@
       <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="13"/>
+      <c r="C21" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E21" s="14" t="s">
         <v>41</v>
       </c>
@@ -3113,15 +3278,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
@@ -3170,10 +3333,12 @@
       <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
         <v>29</v>
       </c>
@@ -3193,10 +3358,12 @@
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
         <v>29</v>
       </c>
@@ -3216,10 +3383,12 @@
       <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13"/>
       <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
@@ -3238,10 +3407,12 @@
       <c r="B6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13"/>
       <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
@@ -3260,10 +3431,12 @@
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13"/>
       <c r="E7" s="23" t="s">
         <v>31</v>
       </c>
@@ -3282,10 +3455,12 @@
       <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13"/>
       <c r="E8" s="23" t="s">
         <v>30</v>
       </c>
@@ -3304,10 +3479,12 @@
       <c r="B9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13"/>
       <c r="E9" s="23" t="s">
         <v>30</v>
       </c>
@@ -3326,10 +3503,12 @@
       <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="13"/>
+      <c r="C10" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="14" t="s">
         <v>32</v>
       </c>
@@ -3348,10 +3527,12 @@
       <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="13"/>
+      <c r="C11" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="14" t="s">
         <v>33</v>
       </c>
@@ -3370,10 +3551,12 @@
       <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="13"/>
+      <c r="C12" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="14" t="s">
         <v>34</v>
       </c>
@@ -3392,10 +3575,12 @@
       <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="13"/>
+      <c r="C13" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="14" t="s">
         <v>34</v>
       </c>
@@ -3414,10 +3599,12 @@
       <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="13"/>
+      <c r="C14" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="14" t="s">
         <v>35</v>
       </c>
@@ -3436,10 +3623,12 @@
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="C15" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="14" t="s">
         <v>36</v>
       </c>
@@ -3458,10 +3647,12 @@
       <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="13"/>
+      <c r="C16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="14" t="s">
         <v>37</v>
       </c>
@@ -3480,10 +3671,12 @@
       <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="13"/>
+      <c r="C17" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="14" t="s">
         <v>38</v>
       </c>
@@ -3502,10 +3695,12 @@
       <c r="B18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="13"/>
+      <c r="C18" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="14" t="s">
         <v>39</v>
       </c>
@@ -3524,10 +3719,12 @@
       <c r="B19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="13"/>
+      <c r="C19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="14" t="s">
         <v>39</v>
       </c>
@@ -3546,10 +3743,12 @@
       <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="13"/>
+      <c r="C20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="14" t="s">
         <v>40</v>
       </c>
@@ -3568,10 +3767,12 @@
       <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="13"/>
+      <c r="C21" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E21" s="14" t="s">
         <v>41</v>
       </c>
@@ -3620,15 +3821,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
@@ -3677,10 +3876,12 @@
       <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
         <v>29</v>
       </c>
@@ -3700,10 +3901,12 @@
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
         <v>29</v>
       </c>
@@ -3723,10 +3926,12 @@
       <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13"/>
       <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
@@ -3745,10 +3950,12 @@
       <c r="B6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13"/>
       <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
@@ -3767,10 +3974,12 @@
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13"/>
       <c r="E7" s="23" t="s">
         <v>31</v>
       </c>
@@ -3789,10 +3998,12 @@
       <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13"/>
       <c r="E8" s="23" t="s">
         <v>30</v>
       </c>
@@ -3811,10 +4022,12 @@
       <c r="B9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13"/>
       <c r="E9" s="23" t="s">
         <v>30</v>
       </c>
@@ -3833,10 +4046,12 @@
       <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="13"/>
+      <c r="C10" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="14" t="s">
         <v>32</v>
       </c>
@@ -3855,10 +4070,12 @@
       <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="13"/>
+      <c r="C11" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="14" t="s">
         <v>33</v>
       </c>
@@ -3877,10 +4094,12 @@
       <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="13"/>
+      <c r="C12" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="14" t="s">
         <v>42</v>
       </c>
@@ -3899,10 +4118,12 @@
       <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="13"/>
+      <c r="C13" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="14" t="s">
         <v>43</v>
       </c>
@@ -3921,10 +4142,12 @@
       <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="13"/>
+      <c r="C14" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="14" t="s">
         <v>44</v>
       </c>
@@ -3943,10 +4166,12 @@
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="C15" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="14" t="s">
         <v>45</v>
       </c>
@@ -3965,10 +4190,12 @@
       <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="13"/>
+      <c r="C16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="14" t="s">
         <v>46</v>
       </c>
@@ -3987,10 +4214,12 @@
       <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="13"/>
+      <c r="C17" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="14" t="s">
         <v>47</v>
       </c>
@@ -4009,10 +4238,12 @@
       <c r="B18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="13"/>
+      <c r="C18" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="14" t="s">
         <v>48</v>
       </c>
@@ -4031,10 +4262,12 @@
       <c r="B19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="13"/>
+      <c r="C19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="14" t="s">
         <v>49</v>
       </c>
@@ -4053,10 +4286,12 @@
       <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="13"/>
+      <c r="C20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="14" t="s">
         <v>50</v>
       </c>
@@ -4075,10 +4310,12 @@
       <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="13"/>
+      <c r="C21" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E21" s="14" t="s">
         <v>51</v>
       </c>
@@ -4127,15 +4364,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
@@ -4184,10 +4419,12 @@
       <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
         <v>29</v>
       </c>
@@ -4207,10 +4444,12 @@
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
         <v>29</v>
       </c>
@@ -4231,10 +4470,12 @@
       <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13"/>
       <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
@@ -4253,10 +4494,12 @@
       <c r="B6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13"/>
       <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
@@ -4275,10 +4518,12 @@
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13"/>
       <c r="E7" s="23" t="s">
         <v>31</v>
       </c>
@@ -4297,10 +4542,12 @@
       <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13"/>
       <c r="E8" s="23" t="s">
         <v>30</v>
       </c>
@@ -4319,10 +4566,12 @@
       <c r="B9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13"/>
       <c r="E9" s="23" t="s">
         <v>30</v>
       </c>
@@ -4341,10 +4590,12 @@
       <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="13"/>
+      <c r="C10" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="14" t="s">
         <v>32</v>
       </c>
@@ -4363,10 +4614,12 @@
       <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="13"/>
+      <c r="C11" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="14" t="s">
         <v>33</v>
       </c>
@@ -4385,10 +4638,12 @@
       <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="13"/>
+      <c r="C12" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="14" t="s">
         <v>34</v>
       </c>
@@ -4407,10 +4662,12 @@
       <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="13"/>
+      <c r="C13" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="14" t="s">
         <v>34</v>
       </c>
@@ -4429,10 +4686,12 @@
       <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="13"/>
+      <c r="C14" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="14" t="s">
         <v>35</v>
       </c>
@@ -4451,10 +4710,12 @@
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="C15" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="14" t="s">
         <v>36</v>
       </c>
@@ -4473,10 +4734,12 @@
       <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="13"/>
+      <c r="C16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="14" t="s">
         <v>37</v>
       </c>
@@ -4495,10 +4758,12 @@
       <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="13"/>
+      <c r="C17" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="14" t="s">
         <v>38</v>
       </c>
@@ -4517,10 +4782,12 @@
       <c r="B18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="13"/>
+      <c r="C18" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="14" t="s">
         <v>39</v>
       </c>
@@ -4539,10 +4806,12 @@
       <c r="B19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="13"/>
+      <c r="C19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="14" t="s">
         <v>39</v>
       </c>
@@ -4561,10 +4830,12 @@
       <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="13"/>
+      <c r="C20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="14" t="s">
         <v>40</v>
       </c>
@@ -4583,10 +4854,12 @@
       <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="13"/>
+      <c r="C21" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E21" s="14" t="s">
         <v>41</v>
       </c>
@@ -4631,19 +4904,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
@@ -4692,10 +4963,12 @@
       <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
         <v>29</v>
       </c>
@@ -4715,10 +4988,12 @@
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
         <v>29</v>
       </c>
@@ -4739,10 +5014,12 @@
       <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13"/>
       <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
@@ -4761,10 +5038,12 @@
       <c r="B6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13"/>
       <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
@@ -4783,10 +5062,12 @@
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13"/>
       <c r="E7" s="23" t="s">
         <v>31</v>
       </c>
@@ -4805,10 +5086,12 @@
       <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13"/>
       <c r="E8" s="23" t="s">
         <v>30</v>
       </c>
@@ -4827,10 +5110,12 @@
       <c r="B9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13"/>
       <c r="E9" s="23" t="s">
         <v>30</v>
       </c>
@@ -4849,10 +5134,12 @@
       <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="13"/>
+      <c r="C10" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="14" t="s">
         <v>32</v>
       </c>
@@ -4871,10 +5158,12 @@
       <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="13"/>
+      <c r="C11" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="14" t="s">
         <v>33</v>
       </c>
@@ -4893,10 +5182,12 @@
       <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="13"/>
+      <c r="C12" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="14" t="s">
         <v>34</v>
       </c>
@@ -4915,10 +5206,12 @@
       <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="13"/>
+      <c r="C13" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="14" t="s">
         <v>34</v>
       </c>
@@ -4937,10 +5230,12 @@
       <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="13"/>
+      <c r="C14" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="14" t="s">
         <v>35</v>
       </c>
@@ -4959,10 +5254,12 @@
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="C15" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="14" t="s">
         <v>36</v>
       </c>
@@ -4981,10 +5278,12 @@
       <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="13"/>
+      <c r="C16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="14" t="s">
         <v>37</v>
       </c>
@@ -5003,10 +5302,12 @@
       <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="13"/>
+      <c r="C17" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="14" t="s">
         <v>38</v>
       </c>
@@ -5025,10 +5326,12 @@
       <c r="B18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="13"/>
+      <c r="C18" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="14" t="s">
         <v>39</v>
       </c>
@@ -5047,10 +5350,12 @@
       <c r="B19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="13"/>
+      <c r="C19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="14" t="s">
         <v>39</v>
       </c>
@@ -5069,10 +5374,12 @@
       <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="13"/>
+      <c r="C20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="14" t="s">
         <v>40</v>
       </c>
@@ -5091,10 +5398,12 @@
       <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="13"/>
+      <c r="C21" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E21" s="14" t="s">
         <v>41</v>
       </c>
@@ -5139,7 +5448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Vatican_city\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB95B91-4393-4193-9F77-1B7DD27C7EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,12 +75,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -116,12 +117,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -158,12 +159,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -200,12 +201,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -242,12 +243,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -284,12 +285,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -326,12 +327,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -557,7 +558,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -817,6 +818,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,16 +833,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -936,16 +953,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1213,7 +1230,512 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" ref="G7" si="1">IF(OR(AND(F7&gt;1,F7&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F21">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1223,37 +1745,37 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1268,14 +1790,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="13"/>
@@ -1291,14 +1813,14 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="13"/>
@@ -1314,14 +1836,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="13"/>
@@ -1336,14 +1858,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="13"/>
@@ -1358,14 +1880,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="13"/>
@@ -1376,18 +1898,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="shared" ref="G7" si="1">IF(OR(AND(F7&gt;1,F7&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="13"/>
@@ -1402,14 +1924,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="13"/>
@@ -1424,14 +1946,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="13"/>
@@ -1446,14 +1968,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="13"/>
@@ -1468,14 +1990,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="13"/>
@@ -1490,14 +2012,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="13"/>
@@ -1512,14 +2034,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="13"/>
@@ -1534,14 +2056,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="13"/>
@@ -1556,14 +2078,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="13"/>
@@ -1578,14 +2100,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="13"/>
@@ -1600,14 +2122,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="13"/>
@@ -1622,14 +2144,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="13"/>
@@ -1644,14 +2166,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="13"/>
@@ -1666,14 +2188,519 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F21">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="13"/>
@@ -1717,8 +2744,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1728,37 +2755,37 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1773,17 +2800,19 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="13"/>
+      <c r="C3" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="14" t="s">
         <v>29</v>
       </c>
@@ -1796,17 +2825,19 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="13"/>
+      <c r="C4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="14" t="s">
         <v>29</v>
       </c>
@@ -1819,17 +2850,19 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="13"/>
+      <c r="C5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
@@ -1841,17 +2874,19 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="13"/>
+      <c r="C6" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
@@ -1863,17 +2898,19 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="13"/>
+      <c r="C7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="23" t="s">
         <v>31</v>
       </c>
@@ -1885,17 +2922,19 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="13"/>
+      <c r="C8" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E8" s="23" t="s">
         <v>30</v>
       </c>
@@ -1907,17 +2946,19 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="13"/>
+      <c r="C9" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="23" t="s">
         <v>30</v>
       </c>
@@ -1929,17 +2970,19 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="13"/>
+      <c r="C10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="14" t="s">
         <v>32</v>
       </c>
@@ -1951,17 +2994,19 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="13"/>
+      <c r="C11" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="14" t="s">
         <v>33</v>
       </c>
@@ -1973,17 +3018,19 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="13"/>
+      <c r="C12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="14" t="s">
         <v>34</v>
       </c>
@@ -1995,17 +3042,19 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="13"/>
+      <c r="C13" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="14" t="s">
         <v>34</v>
       </c>
@@ -2017,17 +3066,19 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="13"/>
+      <c r="C14" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="14" t="s">
         <v>35</v>
       </c>
@@ -2039,17 +3090,19 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="C15" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="14" t="s">
         <v>36</v>
       </c>
@@ -2061,17 +3114,19 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="13"/>
+      <c r="C16" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="14" t="s">
         <v>37</v>
       </c>
@@ -2083,17 +3138,19 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="13"/>
+      <c r="C17" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="14" t="s">
         <v>38</v>
       </c>
@@ -2105,17 +3162,19 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="13"/>
+      <c r="C18" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="14" t="s">
         <v>39</v>
       </c>
@@ -2127,17 +3186,19 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="13"/>
+      <c r="C19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="14" t="s">
         <v>39</v>
       </c>
@@ -2149,17 +3210,19 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="13"/>
+      <c r="C20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="14" t="s">
         <v>40</v>
       </c>
@@ -2171,17 +3234,19 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="13"/>
+      <c r="C21" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E21" s="14" t="s">
         <v>41</v>
       </c>
@@ -2222,8 +3287,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2233,37 +3298,37 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2278,17 +3343,19 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="13"/>
+      <c r="C3" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="14" t="s">
         <v>29</v>
       </c>
@@ -2301,17 +3368,19 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="13"/>
+      <c r="C4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="14" t="s">
         <v>29</v>
       </c>
@@ -2324,17 +3393,19 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="13"/>
+      <c r="C5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
@@ -2346,17 +3417,19 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="13"/>
+      <c r="C6" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
@@ -2368,17 +3441,19 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="13"/>
+      <c r="C7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="23" t="s">
         <v>31</v>
       </c>
@@ -2390,17 +3465,19 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="13"/>
+      <c r="C8" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E8" s="23" t="s">
         <v>30</v>
       </c>
@@ -2412,17 +3489,19 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="13"/>
+      <c r="C9" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="23" t="s">
         <v>30</v>
       </c>
@@ -2434,17 +3513,19 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="13"/>
+      <c r="C10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="14" t="s">
         <v>32</v>
       </c>
@@ -2456,17 +3537,19 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="13"/>
+      <c r="C11" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="14" t="s">
         <v>33</v>
       </c>
@@ -2478,17 +3561,19 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="13"/>
+      <c r="C12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="14" t="s">
         <v>34</v>
       </c>
@@ -2500,17 +3585,19 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="13"/>
+      <c r="C13" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="14" t="s">
         <v>34</v>
       </c>
@@ -2522,17 +3609,19 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="13"/>
+      <c r="C14" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="14" t="s">
         <v>35</v>
       </c>
@@ -2544,17 +3633,19 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="C15" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="14" t="s">
         <v>36</v>
       </c>
@@ -2566,17 +3657,19 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="13"/>
+      <c r="C16" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="14" t="s">
         <v>37</v>
       </c>
@@ -2588,17 +3681,19 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="13"/>
+      <c r="C17" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="14" t="s">
         <v>38</v>
       </c>
@@ -2610,17 +3705,19 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="13"/>
+      <c r="C18" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="14" t="s">
         <v>39</v>
       </c>
@@ -2632,17 +3729,19 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="13"/>
+      <c r="C19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="14" t="s">
         <v>39</v>
       </c>
@@ -2654,17 +3753,19 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="13"/>
+      <c r="C20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="14" t="s">
         <v>40</v>
       </c>
@@ -2676,17 +3777,19 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="13"/>
+      <c r="C21" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E21" s="14" t="s">
         <v>41</v>
       </c>
@@ -2727,8 +3830,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2738,37 +3841,37 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>10</v>
+      <c r="F1" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2783,14 +3886,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -2808,14 +3911,14 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -2833,14 +3936,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -2857,14 +3960,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -2881,14 +3984,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -2905,14 +4008,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -2929,14 +4032,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -2953,14 +4056,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -2977,14 +4080,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3001,21 +4104,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3025,21 +4128,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3049,21 +4152,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3073,21 +4176,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3097,21 +4200,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3121,21 +4224,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3145,21 +4248,21 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3169,21 +4272,21 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3193,21 +4296,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3217,21 +4320,21 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3270,8 +4373,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3281,37 +4384,37 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>13</v>
+      <c r="F1" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -3326,14 +4429,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3351,14 +4454,14 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3374,16 +4477,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="H4" s="15"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -3400,14 +4504,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3424,14 +4528,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3448,14 +4552,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -3472,14 +4576,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -3496,14 +4600,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -3520,14 +4624,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3544,14 +4648,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -3568,14 +4672,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3592,14 +4696,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -3616,14 +4720,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -3640,14 +4744,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -3664,14 +4768,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -3688,14 +4792,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -3712,14 +4816,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -3736,14 +4840,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -3760,14 +4864,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -3813,48 +4917,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -3869,14 +4973,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3894,14 +4998,14 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3917,16 +5021,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="H4" s="15"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -3943,14 +5048,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3967,14 +5072,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3991,14 +5096,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -4015,14 +5120,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -4039,14 +5144,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -4063,14 +5168,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -4087,21 +5192,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4111,21 +5216,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4135,21 +5240,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4159,21 +5264,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4183,21 +5288,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4207,21 +5312,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4231,21 +5336,21 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4255,21 +5360,21 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4279,21 +5384,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -4303,21 +5408,21 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -4356,1096 +5461,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F21">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F21">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5455,14 +5472,14 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
@@ -5473,7 +5490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -5484,7 +5501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -5495,7 +5512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -5506,7 +5523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -5517,7 +5534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -5528,7 +5545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -5541,12 +5558,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Vatican_city\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB95B91-4393-4193-9F77-1B7DD27C7EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E732667-0CC0-4B50-82A7-4BE71B7A85C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -369,10 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="61">
-  <si>
-    <t>-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="60">
   <si>
     <t>Year</t>
   </si>
@@ -559,7 +565,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -615,6 +624,10 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -789,9 +802,6 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -833,13 +843,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -847,23 +858,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -929,6 +923,55 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -960,9 +1003,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="15" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1233,71 +1276,576 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" ref="G7" si="1">IF(OR(AND(F7&gt;1,F7&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F21">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
-        <v>29</v>
+      <c r="E3" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1308,19 +1856,19 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
-        <v>29</v>
+      <c r="E4" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1331,21 +1879,21 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="str">
@@ -1353,21 +1901,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="str">
@@ -1375,43 +1923,43 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="shared" ref="G7" si="1">IF(OR(AND(F7&gt;1,F7&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="str">
@@ -1419,21 +1967,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="str">
@@ -1441,19 +1989,19 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
-        <v>32</v>
+      <c r="E10" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1463,19 +2011,19 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="14" t="s">
-        <v>33</v>
+      <c r="E11" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1485,19 +2033,19 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="14" t="s">
-        <v>34</v>
+      <c r="E12" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1507,19 +2055,19 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
-        <v>34</v>
+      <c r="E13" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1529,19 +2077,19 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="14" t="s">
-        <v>35</v>
+      <c r="E14" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1551,19 +2099,19 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="14" t="s">
-        <v>36</v>
+      <c r="E15" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1573,19 +2121,19 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="14" t="s">
-        <v>37</v>
+      <c r="E16" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1595,19 +2143,19 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="14" t="s">
-        <v>38</v>
+      <c r="E17" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1617,19 +2165,19 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="14" t="s">
-        <v>39</v>
+      <c r="E18" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1639,19 +2187,19 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="14" t="s">
-        <v>39</v>
+      <c r="E19" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1661,19 +2209,19 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="14" t="s">
-        <v>40</v>
+      <c r="E20" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1683,19 +2231,19 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="14" t="s">
-        <v>41</v>
+      <c r="E21" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1734,75 +2282,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
-        <v>29</v>
+      <c r="E3" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1813,19 +2361,19 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
-        <v>29</v>
+      <c r="E4" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1836,21 +2384,21 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="str">
@@ -1858,21 +2406,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="str">
@@ -1880,21 +2428,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="str">
@@ -1902,21 +2450,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="str">
@@ -1924,21 +2472,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="str">
@@ -1946,19 +2494,19 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
-        <v>32</v>
+      <c r="E10" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1968,19 +2516,19 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="14" t="s">
-        <v>33</v>
+      <c r="E11" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1990,19 +2538,19 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="14" t="s">
-        <v>34</v>
+      <c r="E12" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2012,19 +2560,19 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
-        <v>34</v>
+      <c r="E13" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2034,19 +2582,19 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="14" t="s">
-        <v>35</v>
+      <c r="E14" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2056,19 +2604,19 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="14" t="s">
-        <v>36</v>
+      <c r="E15" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2078,19 +2626,19 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="14" t="s">
-        <v>37</v>
+      <c r="E16" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2100,19 +2648,19 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="14" t="s">
-        <v>38</v>
+      <c r="E17" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2122,19 +2670,19 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="14" t="s">
-        <v>39</v>
+      <c r="E18" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2144,19 +2692,19 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="14" t="s">
-        <v>39</v>
+      <c r="E19" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2166,19 +2714,19 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="14" t="s">
-        <v>40</v>
+      <c r="E20" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2188,19 +2736,19 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="14" t="s">
-        <v>41</v>
+      <c r="E21" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2216,13 +2764,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F4 F12:F21">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F21">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="F3:F4 F12:F21">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2233,500 +2781,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F3:F21">
+  <conditionalFormatting sqref="F5:F11">
     <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F21">
+  <conditionalFormatting sqref="F5:F11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2752,69 +2812,69 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2825,21 +2885,21 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2850,23 +2910,23 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="str">
@@ -2874,23 +2934,23 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="str">
@@ -2898,23 +2958,23 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="str">
@@ -2922,23 +2982,23 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="str">
@@ -2946,23 +3006,23 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="str">
@@ -2970,21 +3030,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2994,21 +3054,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3018,21 +3078,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3042,21 +3102,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3066,21 +3126,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3090,21 +3150,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3114,21 +3174,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3138,21 +3198,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3162,21 +3222,21 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3186,21 +3246,21 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3210,21 +3270,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3234,21 +3294,21 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3264,12 +3324,29 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F4 F12:F21">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F21">
+  <conditionalFormatting sqref="F3:F4 F12:F21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F11">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3295,69 +3372,69 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3368,21 +3445,21 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3393,23 +3470,23 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="str">
@@ -3417,23 +3494,23 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="str">
@@ -3441,23 +3518,23 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="str">
@@ -3465,23 +3542,23 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="str">
@@ -3489,23 +3566,23 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="str">
@@ -3513,21 +3590,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3537,21 +3614,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3561,21 +3638,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3585,21 +3662,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3609,21 +3686,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3633,21 +3710,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3657,21 +3734,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3681,21 +3758,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3705,21 +3782,21 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3729,21 +3806,21 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3753,21 +3830,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3777,21 +3854,21 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3807,12 +3884,29 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F4 F12:F21">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F21">
+  <conditionalFormatting sqref="F3:F4 F12:F21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F11">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3838,69 +3932,69 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3911,21 +4005,21 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3936,23 +4030,23 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="str">
@@ -3960,23 +4054,23 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="str">
@@ -3984,23 +4078,23 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="str">
@@ -4008,23 +4102,23 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="str">
@@ -4032,23 +4126,23 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="str">
@@ -4056,21 +4150,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4080,21 +4174,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4104,21 +4198,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4128,21 +4222,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4152,21 +4246,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4176,21 +4270,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>45</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4200,21 +4294,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>46</v>
+        <v>11</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4224,21 +4318,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>47</v>
+        <v>11</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4248,21 +4342,21 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4272,21 +4366,21 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>49</v>
+        <v>11</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4296,21 +4390,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -4320,21 +4414,21 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>51</v>
+        <v>11</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -4350,12 +4444,29 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F4 F12:F21">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F21">
+  <conditionalFormatting sqref="F3:F4 F12:F21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F11">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4381,69 +4492,69 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C21"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4454,21 +4565,21 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4477,26 +4588,26 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="str">
@@ -4504,23 +4615,23 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="str">
@@ -4528,23 +4639,23 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="str">
@@ -4552,23 +4663,23 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="str">
@@ -4576,23 +4687,23 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="str">
@@ -4600,21 +4711,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4624,21 +4735,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4648,21 +4759,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4672,21 +4783,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4696,21 +4807,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4720,21 +4831,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4744,21 +4855,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4768,21 +4879,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4792,21 +4903,21 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4816,21 +4927,21 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4840,21 +4951,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -4864,21 +4975,21 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -4894,12 +5005,29 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F4 F12:F21">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F21">
+  <conditionalFormatting sqref="F3:F4 F12:F21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F11">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4919,75 +5047,75 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12:AE31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4996,23 +5124,23 @@
         <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -5021,26 +5149,25 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="str">
@@ -5048,23 +5175,23 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="str">
@@ -5072,23 +5199,23 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="str">
@@ -5096,23 +5223,23 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="str">
@@ -5120,23 +5247,23 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="str">
@@ -5144,21 +5271,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5168,21 +5295,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5192,21 +5319,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -5216,21 +5343,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -5240,21 +5367,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5264,21 +5391,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -5287,22 +5414,24 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5312,21 +5441,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -5336,21 +5465,21 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5360,21 +5489,21 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5384,21 +5513,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -5408,21 +5537,21 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -5438,12 +5567,30 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F4 F12:F21">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F21">
+  <conditionalFormatting sqref="F3:F4 F12:F21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F11">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5472,88 +5619,88 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="22" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21" t="s">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="C4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="22" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="C5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="24" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E732667-0CC0-4B50-82A7-4BE71B7A85C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90534F2-9867-47CF-9138-5747402F1D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4550" yWindow="3040" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -383,9 +383,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -559,6 +556,9 @@
   </si>
   <si>
     <t>Obv: With mint letter R</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -831,6 +831,7 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -843,7 +844,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -851,6 +851,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -963,15 +972,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1003,9 +1003,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="15" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1276,11 +1276,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5:F11"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1293,38 +1293,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1333,14 +1333,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1356,14 +1356,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1379,14 +1379,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1401,14 +1401,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1423,14 +1423,14 @@
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1445,14 +1445,14 @@
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1467,14 +1467,14 @@
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1489,14 +1489,14 @@
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1511,14 +1511,14 @@
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1533,14 +1533,14 @@
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1555,14 +1555,14 @@
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1577,14 +1577,14 @@
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1599,14 +1599,14 @@
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1621,14 +1621,14 @@
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1643,14 +1643,14 @@
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1665,14 +1665,14 @@
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1687,14 +1687,14 @@
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1709,14 +1709,14 @@
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1731,14 +1731,14 @@
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1755,7 +1755,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1785,7 +1785,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13:F19"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1798,38 +1798,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1838,14 +1838,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1861,14 +1861,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1884,14 +1884,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1906,14 +1906,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1928,14 +1928,14 @@
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1950,14 +1950,14 @@
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1972,14 +1972,14 @@
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1994,14 +1994,14 @@
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2016,14 +2016,14 @@
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2038,14 +2038,14 @@
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2060,14 +2060,14 @@
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2082,14 +2082,14 @@
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2104,14 +2104,14 @@
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2126,14 +2126,14 @@
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2148,14 +2148,14 @@
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2170,14 +2170,14 @@
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2192,14 +2192,14 @@
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2214,14 +2214,14 @@
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2236,14 +2236,14 @@
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2260,7 +2260,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2290,7 +2290,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5:F11"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2303,38 +2303,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2343,14 +2343,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2366,14 +2366,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2389,14 +2389,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2411,14 +2411,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2433,14 +2433,14 @@
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2455,14 +2455,14 @@
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2477,14 +2477,14 @@
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2499,14 +2499,14 @@
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2521,14 +2521,14 @@
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2543,14 +2543,14 @@
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2565,14 +2565,14 @@
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2587,14 +2587,14 @@
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2609,14 +2609,14 @@
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2631,14 +2631,14 @@
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2653,14 +2653,14 @@
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2675,14 +2675,14 @@
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2697,14 +2697,14 @@
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2719,14 +2719,14 @@
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2741,14 +2741,14 @@
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2765,7 +2765,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F4 F12:F21">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2782,7 +2782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F11">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2812,7 +2812,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5:F11"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2825,38 +2825,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2865,16 +2865,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2890,16 +2890,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2915,16 +2915,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2939,16 +2939,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2963,16 +2963,16 @@
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2987,16 +2987,16 @@
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3011,16 +3011,16 @@
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3059,16 +3059,16 @@
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3083,16 +3083,16 @@
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3131,16 +3131,16 @@
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3179,16 +3179,16 @@
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3203,16 +3203,16 @@
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3227,16 +3227,16 @@
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3251,16 +3251,16 @@
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3275,16 +3275,16 @@
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3299,16 +3299,16 @@
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3325,7 +3325,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F4 F12:F21">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3342,7 +3342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F11">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3372,7 +3372,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5:F11"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3385,38 +3385,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3425,16 +3425,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3450,16 +3450,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3475,16 +3475,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3499,16 +3499,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3523,16 +3523,16 @@
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3571,16 +3571,16 @@
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3595,16 +3595,16 @@
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3619,16 +3619,16 @@
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3643,16 +3643,16 @@
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3667,16 +3667,16 @@
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3691,16 +3691,16 @@
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3715,16 +3715,16 @@
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3763,16 +3763,16 @@
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3811,16 +3811,16 @@
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3835,16 +3835,16 @@
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3859,16 +3859,16 @@
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3885,7 +3885,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F4 F12:F21">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3902,7 +3902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F11">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3932,7 +3932,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5:F11"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3945,38 +3945,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3985,16 +3985,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4010,16 +4010,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4035,16 +4035,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4059,16 +4059,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4083,16 +4083,16 @@
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4107,16 +4107,16 @@
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4131,16 +4131,16 @@
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4155,16 +4155,16 @@
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4179,16 +4179,16 @@
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4203,16 +4203,16 @@
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4227,16 +4227,16 @@
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4251,16 +4251,16 @@
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4275,16 +4275,16 @@
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4299,16 +4299,16 @@
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4323,16 +4323,16 @@
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4347,16 +4347,16 @@
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4371,16 +4371,16 @@
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4395,16 +4395,16 @@
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -4419,16 +4419,16 @@
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -4445,7 +4445,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F4 F12:F21">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4462,7 +4462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F11">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4492,7 +4492,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5:F11"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4505,38 +4505,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4545,16 +4545,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4570,16 +4570,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4596,16 +4596,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4620,16 +4620,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4644,16 +4644,16 @@
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4668,16 +4668,16 @@
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4692,16 +4692,16 @@
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4716,16 +4716,16 @@
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4740,16 +4740,16 @@
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4764,16 +4764,16 @@
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4788,16 +4788,16 @@
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4812,16 +4812,16 @@
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4836,16 +4836,16 @@
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4860,16 +4860,16 @@
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4884,16 +4884,16 @@
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4908,16 +4908,16 @@
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4932,16 +4932,16 @@
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4956,16 +4956,16 @@
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -4980,16 +4980,16 @@
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -5006,7 +5006,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F4 F12:F21">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5023,7 +5023,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F11">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5049,11 +5049,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12:AE31"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5066,38 +5066,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -5106,16 +5106,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -5131,16 +5131,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -5156,16 +5156,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -5180,16 +5180,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -5204,16 +5204,16 @@
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5228,16 +5228,16 @@
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -5252,16 +5252,16 @@
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -5276,16 +5276,16 @@
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5300,16 +5300,16 @@
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5324,16 +5324,16 @@
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -5348,16 +5348,16 @@
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -5372,16 +5372,16 @@
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5396,16 +5396,16 @@
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -5414,24 +5414,24 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5446,16 +5446,16 @@
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -5470,16 +5470,16 @@
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5494,16 +5494,16 @@
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5518,16 +5518,16 @@
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -5542,16 +5542,16 @@
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -5569,7 +5569,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F4 F12:F21">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5586,7 +5586,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F11">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5628,13 +5628,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5642,10 +5642,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5653,10 +5653,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5664,10 +5664,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5675,10 +5675,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5686,10 +5686,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5697,10 +5697,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90534F2-9867-47CF-9138-5747402F1D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2860B684-7896-45BC-BD6B-515CA16DBB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4550" yWindow="3040" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -378,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="61">
   <si>
     <t>Year</t>
   </si>
@@ -387,12 +397,6 @@
   </si>
   <si>
     <t>Mintage</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
   </si>
   <si>
     <t>1cent</t>
@@ -559,6 +563,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -628,6 +641,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -668,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -761,13 +776,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -835,6 +874,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,6 +884,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1276,55 +1327,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1333,14 +1385,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1356,14 +1408,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1379,14 +1431,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1401,14 +1453,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1423,14 +1475,14 @@
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1445,14 +1497,14 @@
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1467,14 +1519,14 @@
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1489,14 +1541,14 @@
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1511,14 +1563,14 @@
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1533,14 +1585,14 @@
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1555,14 +1607,14 @@
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1577,14 +1629,14 @@
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1599,14 +1651,14 @@
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1621,14 +1673,14 @@
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1643,14 +1695,14 @@
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1665,14 +1717,14 @@
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1687,14 +1739,14 @@
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1709,14 +1761,14 @@
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1731,14 +1783,14 @@
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1749,9 +1801,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F21">
@@ -1785,51 +1837,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1838,14 +1891,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1861,14 +1914,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1884,14 +1937,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1906,14 +1959,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1928,14 +1981,14 @@
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1950,14 +2003,14 @@
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1972,14 +2025,14 @@
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1994,14 +2047,14 @@
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2016,14 +2069,14 @@
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2038,14 +2091,14 @@
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2060,14 +2113,14 @@
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2082,14 +2135,14 @@
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2104,14 +2157,14 @@
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2126,14 +2179,14 @@
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2148,14 +2201,14 @@
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2170,14 +2223,14 @@
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2192,14 +2245,14 @@
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2214,14 +2267,14 @@
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2236,14 +2289,14 @@
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2254,9 +2307,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F21">
@@ -2290,51 +2343,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2343,14 +2397,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2366,14 +2420,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2389,14 +2443,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2411,14 +2465,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2433,14 +2487,14 @@
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2455,14 +2509,14 @@
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2477,14 +2531,14 @@
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2499,14 +2553,14 @@
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2521,14 +2575,14 @@
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2543,14 +2597,14 @@
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2565,14 +2619,14 @@
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2587,14 +2641,14 @@
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2609,14 +2663,14 @@
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2631,14 +2685,14 @@
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2653,14 +2707,14 @@
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2675,14 +2729,14 @@
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2697,14 +2751,14 @@
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2719,14 +2773,14 @@
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2741,14 +2795,14 @@
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2759,9 +2813,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F4 F12:F21">
@@ -2812,51 +2866,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2865,16 +2920,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2890,16 +2945,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2915,16 +2970,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2939,16 +2994,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2963,16 +3018,16 @@
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2987,16 +3042,16 @@
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3011,16 +3066,16 @@
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3035,16 +3090,16 @@
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3059,16 +3114,16 @@
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3083,16 +3138,16 @@
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3107,16 +3162,16 @@
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3131,16 +3186,16 @@
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3155,16 +3210,16 @@
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3179,16 +3234,16 @@
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3203,16 +3258,16 @@
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3227,16 +3282,16 @@
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3251,16 +3306,16 @@
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3275,16 +3330,16 @@
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3299,16 +3354,16 @@
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3319,9 +3374,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F4 F12:F21">
@@ -3372,51 +3427,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3425,16 +3481,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3450,16 +3506,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3475,16 +3531,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3499,16 +3555,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3523,16 +3579,16 @@
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3547,16 +3603,16 @@
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3571,16 +3627,16 @@
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3595,16 +3651,16 @@
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3619,16 +3675,16 @@
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3643,16 +3699,16 @@
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3667,16 +3723,16 @@
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3691,16 +3747,16 @@
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3715,16 +3771,16 @@
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3739,16 +3795,16 @@
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3763,16 +3819,16 @@
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3787,16 +3843,16 @@
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3811,16 +3867,16 @@
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3835,16 +3891,16 @@
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3859,16 +3915,16 @@
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3879,9 +3935,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F4 F12:F21">
@@ -3932,51 +3988,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3985,16 +4042,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4010,16 +4067,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4035,16 +4092,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4059,16 +4116,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4083,16 +4140,16 @@
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4107,16 +4164,16 @@
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4131,16 +4188,16 @@
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4155,16 +4212,16 @@
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4179,16 +4236,16 @@
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4203,16 +4260,16 @@
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4227,16 +4284,16 @@
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4251,16 +4308,16 @@
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4275,16 +4332,16 @@
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4299,16 +4356,16 @@
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4323,16 +4380,16 @@
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4347,16 +4404,16 @@
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4371,16 +4428,16 @@
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4395,16 +4452,16 @@
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -4419,16 +4476,16 @@
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -4439,9 +4496,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F4 F12:F21">
@@ -4492,51 +4549,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4545,16 +4603,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4570,16 +4628,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4596,16 +4654,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4620,16 +4678,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4644,16 +4702,16 @@
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4668,16 +4726,16 @@
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4692,16 +4750,16 @@
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4716,16 +4774,16 @@
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4740,16 +4798,16 @@
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4764,16 +4822,16 @@
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4788,16 +4846,16 @@
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4812,16 +4870,16 @@
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4836,16 +4894,16 @@
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4860,16 +4918,16 @@
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4884,16 +4942,16 @@
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4908,16 +4966,16 @@
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4932,16 +4990,16 @@
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4956,16 +5014,16 @@
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -4980,16 +5038,16 @@
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -5000,9 +5058,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F4 F12:F21">
@@ -5049,55 +5107,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -5106,16 +5165,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -5131,16 +5190,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -5156,16 +5215,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -5180,16 +5239,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -5204,16 +5263,16 @@
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5228,16 +5287,16 @@
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -5252,16 +5311,16 @@
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -5276,16 +5335,16 @@
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5300,16 +5359,16 @@
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5324,16 +5383,16 @@
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -5348,16 +5407,16 @@
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -5372,16 +5431,16 @@
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5396,16 +5455,16 @@
         <v>2013</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -5422,16 +5481,16 @@
         <v>2014</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5446,16 +5505,16 @@
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -5470,16 +5529,16 @@
         <v>2016</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5494,16 +5553,16 @@
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5518,16 +5577,16 @@
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -5542,16 +5601,16 @@
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -5562,9 +5621,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5628,13 +5687,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5642,10 +5701,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5653,10 +5712,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5664,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5675,10 +5734,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5686,10 +5745,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5697,10 +5756,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
